--- a/update_data/data/bank_psbc/sale/营销语料通用汇总10.25.xlsx
+++ b/update_data/data/bank_psbc/sale/营销语料通用汇总10.25.xlsx
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>你来干什么</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄赳赳，气昂昂旺宝带着吉祥物来给大家拜年啦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -181,6 +177,9 @@
   <si>
     <t>理财产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄赳赳，气昂昂储储带着吉祥物来给大家拜年啦</t>
   </si>
 </sst>
 </file>
@@ -645,7 +644,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -661,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -670,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -687,19 +686,19 @@
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -709,16 +708,16 @@
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
@@ -731,16 +730,16 @@
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
@@ -778,7 +777,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -787,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -804,7 +803,7 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -816,23 +815,23 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -843,12 +842,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -865,7 +864,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
